--- a/outputs-HGR-r202/test-g__Enterococcus_B_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_B_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Row</t>
   </si>
@@ -53,6 +53,210 @@
   </si>
   <si>
     <t>even_MAG-GUT26973.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44002.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44177.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44666.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT45882.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48488.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48629.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48682.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48829.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48887.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49002.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49023.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49297.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49379.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49567.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT51.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT67985.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT68111.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT68640.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7086.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7175.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87407.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87621.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87674.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87941.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88714.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88733.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88737.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88876.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89068.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89179.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89204.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89292.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89317.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89355.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89363.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89413.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89720.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89992.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90064.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90077.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90107.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90127.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90167.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90189.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90251.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90266.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90291.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90368.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90390.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90429.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90505.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90598.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90630.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90636.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90777.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90901.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90946.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90975.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91032.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91072.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91119.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91131.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91135.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91251.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91736.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91762.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91833.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91960.fa</t>
   </si>
   <si>
     <t>1-s__Enterococcus_B durans</t>
@@ -112,7 +316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -127,16 +331,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -343,6 +547,1162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.13726395398669206</v>
+      </c>
+      <c r="C14">
+        <v>0.78774789207222651</v>
+      </c>
+      <c r="D14">
+        <v>0.074988153941081534</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.19965323173595084</v>
+      </c>
+      <c r="C15">
+        <v>0.73660801890681593</v>
+      </c>
+      <c r="D15">
+        <v>0.063738749357233129</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.13726395398669206</v>
+      </c>
+      <c r="C16">
+        <v>0.78774789207222651</v>
+      </c>
+      <c r="D16">
+        <v>0.074988153941081534</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.19708151685418099</v>
+      </c>
+      <c r="C17">
+        <v>0.74107316675860679</v>
+      </c>
+      <c r="D17">
+        <v>0.061845316387212246</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.19542801335457127</v>
+      </c>
+      <c r="C18">
+        <v>0.74235644388246258</v>
+      </c>
+      <c r="D18">
+        <v>0.062215542762966224</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.14094214402205713</v>
+      </c>
+      <c r="C19">
+        <v>0.7832220730297651</v>
+      </c>
+      <c r="D19">
+        <v>0.075835782948177763</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.12846950374272692</v>
+      </c>
+      <c r="C20">
+        <v>0.8071862532683417</v>
+      </c>
+      <c r="D20">
+        <v>0.064344242988931488</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.2070366856458197</v>
+      </c>
+      <c r="C21">
+        <v>0.73438353571553461</v>
+      </c>
+      <c r="D21">
+        <v>0.05857977863864567</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.12442575289271172</v>
+      </c>
+      <c r="C22">
+        <v>0.80993602113156471</v>
+      </c>
+      <c r="D22">
+        <v>0.065638225975723427</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.13166843953694868</v>
+      </c>
+      <c r="C23">
+        <v>0.79164377892472648</v>
+      </c>
+      <c r="D23">
+        <v>0.076687781538324715</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.19360000432193461</v>
+      </c>
+      <c r="C24">
+        <v>0.74768806532305865</v>
+      </c>
+      <c r="D24">
+        <v>0.058711930355006714</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.20122542842743876</v>
+      </c>
+      <c r="C25">
+        <v>0.74016262645946562</v>
+      </c>
+      <c r="D25">
+        <v>0.058611945113095705</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.12179652096107167</v>
+      </c>
+      <c r="C26">
+        <v>0.82137664588977144</v>
+      </c>
+      <c r="D26">
+        <v>0.056826833149156881</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.15676141439410954</v>
+      </c>
+      <c r="C27">
+        <v>0.77591046383657036</v>
+      </c>
+      <c r="D27">
+        <v>0.06732812176931996</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.16578238830993919</v>
+      </c>
+      <c r="C28">
+        <v>0.76755726259870005</v>
+      </c>
+      <c r="D28">
+        <v>0.066660349091360802</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.12387878523162929</v>
+      </c>
+      <c r="C29">
+        <v>0.80633963216169435</v>
+      </c>
+      <c r="D29">
+        <v>0.069781582606676204</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.15036793029425427</v>
+      </c>
+      <c r="C30">
+        <v>0.78887002249770011</v>
+      </c>
+      <c r="D30">
+        <v>0.060762047208045573</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.12939196855749674</v>
+      </c>
+      <c r="C31">
+        <v>0.79649816940830587</v>
+      </c>
+      <c r="D31">
+        <v>0.074109862034197352</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.13071191363742243</v>
+      </c>
+      <c r="C32">
+        <v>0.79426059990697884</v>
+      </c>
+      <c r="D32">
+        <v>0.075027486455598758</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.19004100563456178</v>
+      </c>
+      <c r="C33">
+        <v>0.74795595436414064</v>
+      </c>
+      <c r="D33">
+        <v>0.062003040001297673</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.1454560389384543</v>
+      </c>
+      <c r="C34">
+        <v>0.78822251259905363</v>
+      </c>
+      <c r="D34">
+        <v>0.066321448462492036</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.14898446163945986</v>
+      </c>
+      <c r="C35">
+        <v>0.78692402804533834</v>
+      </c>
+      <c r="D35">
+        <v>0.064091510315201661</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.1454560389384543</v>
+      </c>
+      <c r="C36">
+        <v>0.78822251259905363</v>
+      </c>
+      <c r="D36">
+        <v>0.066321448462492036</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.15128366436870785</v>
+      </c>
+      <c r="C37">
+        <v>0.78015657210683087</v>
+      </c>
+      <c r="D37">
+        <v>0.068559763524461276</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.12845096758175853</v>
+      </c>
+      <c r="C38">
+        <v>0.80514082536655107</v>
+      </c>
+      <c r="D38">
+        <v>0.066408207051690302</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.15742725795082732</v>
+      </c>
+      <c r="C39">
+        <v>0.78013675629592116</v>
+      </c>
+      <c r="D39">
+        <v>0.062435985753251502</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.15501835369485462</v>
+      </c>
+      <c r="C40">
+        <v>0.77737662110863348</v>
+      </c>
+      <c r="D40">
+        <v>0.067605025196511931</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.12845096758175853</v>
+      </c>
+      <c r="C41">
+        <v>0.80514082536655107</v>
+      </c>
+      <c r="D41">
+        <v>0.066408207051690302</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.13565820984967378</v>
+      </c>
+      <c r="C42">
+        <v>0.79404324895376366</v>
+      </c>
+      <c r="D42">
+        <v>0.070298541196562592</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.14407421114462318</v>
+      </c>
+      <c r="C43">
+        <v>0.78585257743465653</v>
+      </c>
+      <c r="D43">
+        <v>0.070073211420720302</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.14407421114462318</v>
+      </c>
+      <c r="C44">
+        <v>0.78585257743465653</v>
+      </c>
+      <c r="D44">
+        <v>0.070073211420720302</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.14217595615965553</v>
+      </c>
+      <c r="C45">
+        <v>0.78894329913146777</v>
+      </c>
+      <c r="D45">
+        <v>0.068880744708876646</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.13239964184731406</v>
+      </c>
+      <c r="C46">
+        <v>0.79639320553709714</v>
+      </c>
+      <c r="D46">
+        <v>0.071207152615588937</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.14472326130014443</v>
+      </c>
+      <c r="C47">
+        <v>0.78435637919329926</v>
+      </c>
+      <c r="D47">
+        <v>0.070920359506556396</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.12687882180598675</v>
+      </c>
+      <c r="C48">
+        <v>0.80569136638994077</v>
+      </c>
+      <c r="D48">
+        <v>0.067429811804072468</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.12832199887208209</v>
+      </c>
+      <c r="C49">
+        <v>0.80220825978214683</v>
+      </c>
+      <c r="D49">
+        <v>0.069469741345771108</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.15640157738714572</v>
+      </c>
+      <c r="C50">
+        <v>0.77505098072465173</v>
+      </c>
+      <c r="D50">
+        <v>0.068547441888202609</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.13565820984967378</v>
+      </c>
+      <c r="C51">
+        <v>0.79404324895376366</v>
+      </c>
+      <c r="D51">
+        <v>0.070298541196562592</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.11916542178240302</v>
+      </c>
+      <c r="C52">
+        <v>0.8145220927482264</v>
+      </c>
+      <c r="D52">
+        <v>0.066312485469370477</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.12845096758175853</v>
+      </c>
+      <c r="C53">
+        <v>0.80514082536655107</v>
+      </c>
+      <c r="D53">
+        <v>0.066408207051690302</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.14472326130014443</v>
+      </c>
+      <c r="C54">
+        <v>0.78435637919329926</v>
+      </c>
+      <c r="D54">
+        <v>0.070920359506556396</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.13130579318140587</v>
+      </c>
+      <c r="C55">
+        <v>0.80471836671665775</v>
+      </c>
+      <c r="D55">
+        <v>0.063975840101936438</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.14472326130014443</v>
+      </c>
+      <c r="C56">
+        <v>0.78435637919329926</v>
+      </c>
+      <c r="D56">
+        <v>0.070920359506556396</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.14472326130014443</v>
+      </c>
+      <c r="C57">
+        <v>0.78435637919329926</v>
+      </c>
+      <c r="D57">
+        <v>0.070920359506556396</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.12845096758175853</v>
+      </c>
+      <c r="C58">
+        <v>0.80514082536655107</v>
+      </c>
+      <c r="D58">
+        <v>0.066408207051690302</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.1686162175901641</v>
+      </c>
+      <c r="C59">
+        <v>0.76816165388562363</v>
+      </c>
+      <c r="D59">
+        <v>0.063222128524212301</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.13239964184731406</v>
+      </c>
+      <c r="C60">
+        <v>0.79639320553709714</v>
+      </c>
+      <c r="D60">
+        <v>0.071207152615588937</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.11374023191316648</v>
+      </c>
+      <c r="C61">
+        <v>0.8217437576368487</v>
+      </c>
+      <c r="D61">
+        <v>0.064516010449984867</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.13565820984967378</v>
+      </c>
+      <c r="C62">
+        <v>0.79404324895376366</v>
+      </c>
+      <c r="D62">
+        <v>0.070298541196562592</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.13862854469643984</v>
+      </c>
+      <c r="C63">
+        <v>0.80032626648283733</v>
+      </c>
+      <c r="D63">
+        <v>0.061045188820722816</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.14407421114462318</v>
+      </c>
+      <c r="C64">
+        <v>0.78585257743465653</v>
+      </c>
+      <c r="D64">
+        <v>0.070073211420720302</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.12845096758175853</v>
+      </c>
+      <c r="C65">
+        <v>0.80514082536655107</v>
+      </c>
+      <c r="D65">
+        <v>0.066408207051690302</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.12845096758175853</v>
+      </c>
+      <c r="C66">
+        <v>0.80514082536655107</v>
+      </c>
+      <c r="D66">
+        <v>0.066408207051690302</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.14353948063004721</v>
+      </c>
+      <c r="C67">
+        <v>0.79256667478170995</v>
+      </c>
+      <c r="D67">
+        <v>0.063893844588242821</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.13107959952290862</v>
+      </c>
+      <c r="C68">
+        <v>0.80492639249035158</v>
+      </c>
+      <c r="D68">
+        <v>0.063994007986739779</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.13250554717188417</v>
+      </c>
+      <c r="C69">
+        <v>0.80275553762010232</v>
+      </c>
+      <c r="D69">
+        <v>0.064738915208013406</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.14407421114462318</v>
+      </c>
+      <c r="C70">
+        <v>0.78585257743465653</v>
+      </c>
+      <c r="D70">
+        <v>0.070073211420720302</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.14407421114462318</v>
+      </c>
+      <c r="C71">
+        <v>0.78585257743465653</v>
+      </c>
+      <c r="D71">
+        <v>0.070073211420720302</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.11527506418326119</v>
+      </c>
+      <c r="C72">
+        <v>0.81895407659145958</v>
+      </c>
+      <c r="D72">
+        <v>0.065770859225279199</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.12832199887208209</v>
+      </c>
+      <c r="C73">
+        <v>0.80220825978214683</v>
+      </c>
+      <c r="D73">
+        <v>0.069469741345771108</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.14407421114462318</v>
+      </c>
+      <c r="C74">
+        <v>0.78585257743465653</v>
+      </c>
+      <c r="D74">
+        <v>0.070073211420720302</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.13565820984967378</v>
+      </c>
+      <c r="C75">
+        <v>0.79404324895376366</v>
+      </c>
+      <c r="D75">
+        <v>0.070298541196562592</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.14407421114462318</v>
+      </c>
+      <c r="C76">
+        <v>0.78585257743465653</v>
+      </c>
+      <c r="D76">
+        <v>0.070073211420720302</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.1937676036564264</v>
+      </c>
+      <c r="C77">
+        <v>0.74100930478327542</v>
+      </c>
+      <c r="D77">
+        <v>0.065223091560298194</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.19795480081716743</v>
+      </c>
+      <c r="C78">
+        <v>0.73925546612233062</v>
+      </c>
+      <c r="D78">
+        <v>0.062789733060501896</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.21920938937185175</v>
+      </c>
+      <c r="C79">
+        <v>0.72030799735147877</v>
+      </c>
+      <c r="D79">
+        <v>0.060482613276669456</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.19872654382809266</v>
+      </c>
+      <c r="C80">
+        <v>0.74354545766528435</v>
+      </c>
+      <c r="D80">
+        <v>0.0577279985066231</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.20471730211228903</v>
+      </c>
+      <c r="C81">
+        <v>0.73436959306075023</v>
+      </c>
+      <c r="D81">
+        <v>0.060913104826960648</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/outputs-HGR-r202/test-g__Enterococcus_B_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_B_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>Row</t>
   </si>
@@ -289,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -299,14 +299,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,24 +331,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -361,7 +365,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -378,7 +382,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -395,7 +399,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -412,7 +416,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -429,7 +433,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -446,7 +450,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -463,7 +467,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -480,7 +484,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -497,7 +501,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -514,7 +518,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -531,7 +535,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -548,7 +552,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -565,552 +569,552 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.19965323173595084</v>
+        <v>0.13726395398669206</v>
       </c>
       <c r="C15">
-        <v>0.73660801890681593</v>
+        <v>0.78774789207222651</v>
       </c>
       <c r="D15">
-        <v>0.063738749357233129</v>
+        <v>0.074988153941081534</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.13726395398669206</v>
+        <v>0.14094214402205713</v>
       </c>
       <c r="C16">
-        <v>0.78774789207222651</v>
+        <v>0.7832220730297651</v>
       </c>
       <c r="D16">
-        <v>0.074988153941081534</v>
+        <v>0.075835782948177763</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.19708151685418099</v>
+        <v>0.12846950374272692</v>
       </c>
       <c r="C17">
-        <v>0.74107316675860679</v>
+        <v>0.8071862532683417</v>
       </c>
       <c r="D17">
-        <v>0.061845316387212246</v>
+        <v>0.064344242988931488</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.19542801335457127</v>
+        <v>0.12442575289271172</v>
       </c>
       <c r="C18">
-        <v>0.74235644388246258</v>
+        <v>0.80993602113156471</v>
       </c>
       <c r="D18">
-        <v>0.062215542762966224</v>
+        <v>0.065638225975723427</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.14094214402205713</v>
+        <v>0.13166843953694868</v>
       </c>
       <c r="C19">
-        <v>0.7832220730297651</v>
+        <v>0.79164377892472648</v>
       </c>
       <c r="D19">
-        <v>0.075835782948177763</v>
+        <v>0.076687781538324715</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.12846950374272692</v>
+        <v>0.12179652096107167</v>
       </c>
       <c r="C20">
-        <v>0.8071862532683417</v>
+        <v>0.82137664588977144</v>
       </c>
       <c r="D20">
-        <v>0.064344242988931488</v>
+        <v>0.056826833149156881</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2070366856458197</v>
+        <v>0.15676141439410954</v>
       </c>
       <c r="C21">
-        <v>0.73438353571553461</v>
+        <v>0.77591046383657036</v>
       </c>
       <c r="D21">
-        <v>0.05857977863864567</v>
+        <v>0.06732812176931996</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.12442575289271172</v>
+        <v>0.16578238830993919</v>
       </c>
       <c r="C22">
-        <v>0.80993602113156471</v>
+        <v>0.76755726259870005</v>
       </c>
       <c r="D22">
-        <v>0.065638225975723427</v>
+        <v>0.066660349091360802</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.13166843953694868</v>
+        <v>0.12387878523162929</v>
       </c>
       <c r="C23">
-        <v>0.79164377892472648</v>
+        <v>0.80633963216169435</v>
       </c>
       <c r="D23">
-        <v>0.076687781538324715</v>
+        <v>0.069781582606676204</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.19360000432193461</v>
+        <v>0.15036793029425427</v>
       </c>
       <c r="C24">
-        <v>0.74768806532305865</v>
+        <v>0.78887002249770011</v>
       </c>
       <c r="D24">
-        <v>0.058711930355006714</v>
+        <v>0.060762047208045573</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.20122542842743876</v>
+        <v>0.12939196855749674</v>
       </c>
       <c r="C25">
-        <v>0.74016262645946562</v>
+        <v>0.79649816940830587</v>
       </c>
       <c r="D25">
-        <v>0.058611945113095705</v>
+        <v>0.074109862034197352</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.12179652096107167</v>
+        <v>0.13071191363742243</v>
       </c>
       <c r="C26">
-        <v>0.82137664588977144</v>
+        <v>0.79426059990697884</v>
       </c>
       <c r="D26">
-        <v>0.056826833149156881</v>
+        <v>0.075027486455598758</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.15676141439410954</v>
+        <v>0.1454560389384543</v>
       </c>
       <c r="C27">
-        <v>0.77591046383657036</v>
+        <v>0.78822251259905363</v>
       </c>
       <c r="D27">
-        <v>0.06732812176931996</v>
+        <v>0.066321448462492036</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.16578238830993919</v>
+        <v>0.14898446163945986</v>
       </c>
       <c r="C28">
-        <v>0.76755726259870005</v>
+        <v>0.78692402804533834</v>
       </c>
       <c r="D28">
-        <v>0.066660349091360802</v>
+        <v>0.064091510315201661</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.12387878523162929</v>
+        <v>0.1454560389384543</v>
       </c>
       <c r="C29">
-        <v>0.80633963216169435</v>
+        <v>0.78822251259905363</v>
       </c>
       <c r="D29">
-        <v>0.069781582606676204</v>
+        <v>0.066321448462492036</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.15036793029425427</v>
+        <v>0.15128366436870785</v>
       </c>
       <c r="C30">
-        <v>0.78887002249770011</v>
+        <v>0.78015657210683087</v>
       </c>
       <c r="D30">
-        <v>0.060762047208045573</v>
+        <v>0.068559763524461276</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.12939196855749674</v>
+        <v>0.12845096758175853</v>
       </c>
       <c r="C31">
-        <v>0.79649816940830587</v>
+        <v>0.80514082536655107</v>
       </c>
       <c r="D31">
-        <v>0.074109862034197352</v>
+        <v>0.066408207051690302</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.13071191363742243</v>
+        <v>0.15742725795082732</v>
       </c>
       <c r="C32">
-        <v>0.79426059990697884</v>
+        <v>0.78013675629592116</v>
       </c>
       <c r="D32">
-        <v>0.075027486455598758</v>
+        <v>0.062435985753251502</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.19004100563456178</v>
+        <v>0.15501835369485462</v>
       </c>
       <c r="C33">
-        <v>0.74795595436414064</v>
+        <v>0.77737662110863348</v>
       </c>
       <c r="D33">
-        <v>0.062003040001297673</v>
+        <v>0.067605025196511931</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.1454560389384543</v>
+        <v>0.12845096758175853</v>
       </c>
       <c r="C34">
-        <v>0.78822251259905363</v>
+        <v>0.80514082536655107</v>
       </c>
       <c r="D34">
-        <v>0.066321448462492036</v>
+        <v>0.066408207051690302</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.14898446163945986</v>
+        <v>0.13565820984967378</v>
       </c>
       <c r="C35">
-        <v>0.78692402804533834</v>
+        <v>0.79404324895376366</v>
       </c>
       <c r="D35">
-        <v>0.064091510315201661</v>
+        <v>0.070298541196562592</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.1454560389384543</v>
+        <v>0.14407421114462318</v>
       </c>
       <c r="C36">
-        <v>0.78822251259905363</v>
+        <v>0.78585257743465653</v>
       </c>
       <c r="D36">
-        <v>0.066321448462492036</v>
+        <v>0.070073211420720302</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>0.15128366436870785</v>
+        <v>0.14407421114462318</v>
       </c>
       <c r="C37">
-        <v>0.78015657210683087</v>
+        <v>0.78585257743465653</v>
       </c>
       <c r="D37">
-        <v>0.068559763524461276</v>
+        <v>0.070073211420720302</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B38">
+        <v>0.14217595615965553</v>
+      </c>
+      <c r="C38">
+        <v>0.78894329913146777</v>
+      </c>
+      <c r="D38">
+        <v>0.068880744708876646</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>0.13239964184731406</v>
+      </c>
+      <c r="C39">
+        <v>0.79639320553709714</v>
+      </c>
+      <c r="D39">
+        <v>0.071207152615588937</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>0.14472326130014443</v>
+      </c>
+      <c r="C40">
+        <v>0.78435637919329926</v>
+      </c>
+      <c r="D40">
+        <v>0.070920359506556396</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>0.12687882180598675</v>
+      </c>
+      <c r="C41">
+        <v>0.80569136638994077</v>
+      </c>
+      <c r="D41">
+        <v>0.067429811804072468</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>0.12832199887208209</v>
+      </c>
+      <c r="C42">
+        <v>0.80220825978214683</v>
+      </c>
+      <c r="D42">
+        <v>0.069469741345771108</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>0.15640157738714572</v>
+      </c>
+      <c r="C43">
+        <v>0.77505098072465173</v>
+      </c>
+      <c r="D43">
+        <v>0.068547441888202609</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>0.13565820984967378</v>
+      </c>
+      <c r="C44">
+        <v>0.79404324895376366</v>
+      </c>
+      <c r="D44">
+        <v>0.070298541196562592</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>0.11916542178240302</v>
+      </c>
+      <c r="C45">
+        <v>0.8145220927482264</v>
+      </c>
+      <c r="D45">
+        <v>0.066312485469370477</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
         <v>0.12845096758175853</v>
       </c>
-      <c r="C38">
+      <c r="C46">
         <v>0.80514082536655107</v>
       </c>
-      <c r="D38">
+      <c r="D46">
         <v>0.066408207051690302</v>
       </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.15742725795082732</v>
-      </c>
-      <c r="C39">
-        <v>0.78013675629592116</v>
-      </c>
-      <c r="D39">
-        <v>0.062435985753251502</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.15501835369485462</v>
-      </c>
-      <c r="C40">
-        <v>0.77737662110863348</v>
-      </c>
-      <c r="D40">
-        <v>0.067605025196511931</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0.12845096758175853</v>
-      </c>
-      <c r="C41">
-        <v>0.80514082536655107</v>
-      </c>
-      <c r="D41">
-        <v>0.066408207051690302</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0.13565820984967378</v>
-      </c>
-      <c r="C42">
-        <v>0.79404324895376366</v>
-      </c>
-      <c r="D42">
-        <v>0.070298541196562592</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0.14407421114462318</v>
-      </c>
-      <c r="C43">
-        <v>0.78585257743465653</v>
-      </c>
-      <c r="D43">
-        <v>0.070073211420720302</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0.14407421114462318</v>
-      </c>
-      <c r="C44">
-        <v>0.78585257743465653</v>
-      </c>
-      <c r="D44">
-        <v>0.070073211420720302</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0.14217595615965553</v>
-      </c>
-      <c r="C45">
-        <v>0.78894329913146777</v>
-      </c>
-      <c r="D45">
-        <v>0.068880744708876646</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>0.13239964184731406</v>
-      </c>
-      <c r="C46">
-        <v>0.79639320553709714</v>
-      </c>
-      <c r="D46">
-        <v>0.071207152615588937</v>
-      </c>
       <c r="E46">
         <v>2</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B47">
         <v>0.14472326130014443</v>
@@ -1126,178 +1130,178 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.12687882180598675</v>
+        <v>0.13130579318140587</v>
       </c>
       <c r="C48">
-        <v>0.80569136638994077</v>
+        <v>0.80471836671665775</v>
       </c>
       <c r="D48">
-        <v>0.067429811804072468</v>
+        <v>0.063975840101936438</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.12832199887208209</v>
+        <v>0.14472326130014443</v>
       </c>
       <c r="C49">
-        <v>0.80220825978214683</v>
+        <v>0.78435637919329926</v>
       </c>
       <c r="D49">
-        <v>0.069469741345771108</v>
+        <v>0.070920359506556396</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.15640157738714572</v>
+        <v>0.14472326130014443</v>
       </c>
       <c r="C50">
-        <v>0.77505098072465173</v>
+        <v>0.78435637919329926</v>
       </c>
       <c r="D50">
-        <v>0.068547441888202609</v>
+        <v>0.070920359506556396</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B51">
+        <v>0.12845096758175853</v>
+      </c>
+      <c r="C51">
+        <v>0.80514082536655107</v>
+      </c>
+      <c r="D51">
+        <v>0.066408207051690302</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>0.1686162175901641</v>
+      </c>
+      <c r="C52">
+        <v>0.76816165388562363</v>
+      </c>
+      <c r="D52">
+        <v>0.063222128524212301</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>0.13239964184731406</v>
+      </c>
+      <c r="C53">
+        <v>0.79639320553709714</v>
+      </c>
+      <c r="D53">
+        <v>0.071207152615588937</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>0.11374023191316648</v>
+      </c>
+      <c r="C54">
+        <v>0.8217437576368487</v>
+      </c>
+      <c r="D54">
+        <v>0.064516010449984867</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
         <v>0.13565820984967378</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <v>0.79404324895376366</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>0.070298541196562592</v>
       </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>0.11916542178240302</v>
-      </c>
-      <c r="C52">
-        <v>0.8145220927482264</v>
-      </c>
-      <c r="D52">
-        <v>0.066312485469370477</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0.12845096758175853</v>
-      </c>
-      <c r="C53">
-        <v>0.80514082536655107</v>
-      </c>
-      <c r="D53">
-        <v>0.066408207051690302</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0.14472326130014443</v>
-      </c>
-      <c r="C54">
-        <v>0.78435637919329926</v>
-      </c>
-      <c r="D54">
-        <v>0.070920359506556396</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0.13130579318140587</v>
-      </c>
-      <c r="C55">
-        <v>0.80471836671665775</v>
-      </c>
-      <c r="D55">
-        <v>0.063975840101936438</v>
-      </c>
       <c r="E55">
         <v>2</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
+      <c r="A56" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.14472326130014443</v>
+        <v>0.13862854469643984</v>
       </c>
       <c r="C56">
-        <v>0.78435637919329926</v>
+        <v>0.80032626648283733</v>
       </c>
       <c r="D56">
-        <v>0.070920359506556396</v>
+        <v>0.061045188820722816</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
+      <c r="A57" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.14472326130014443</v>
+        <v>0.14407421114462318</v>
       </c>
       <c r="C57">
-        <v>0.78435637919329926</v>
+        <v>0.78585257743465653</v>
       </c>
       <c r="D57">
-        <v>0.070920359506556396</v>
+        <v>0.070073211420720302</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
+      <c r="A58" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B58">
         <v>0.12845096758175853</v>
@@ -1313,93 +1317,93 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
+      <c r="A59" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1686162175901641</v>
+        <v>0.12845096758175853</v>
       </c>
       <c r="C59">
-        <v>0.76816165388562363</v>
+        <v>0.80514082536655107</v>
       </c>
       <c r="D59">
-        <v>0.063222128524212301</v>
+        <v>0.066408207051690302</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.13239964184731406</v>
+        <v>0.14353948063004721</v>
       </c>
       <c r="C60">
-        <v>0.79639320553709714</v>
+        <v>0.79256667478170995</v>
       </c>
       <c r="D60">
-        <v>0.071207152615588937</v>
+        <v>0.063893844588242821</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
+      <c r="A61" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.11374023191316648</v>
+        <v>0.13107959952290862</v>
       </c>
       <c r="C61">
-        <v>0.8217437576368487</v>
+        <v>0.80492639249035158</v>
       </c>
       <c r="D61">
-        <v>0.064516010449984867</v>
+        <v>0.063994007986739779</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
+      <c r="A62" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.13565820984967378</v>
+        <v>0.13250554717188417</v>
       </c>
       <c r="C62">
-        <v>0.79404324895376366</v>
+        <v>0.80275553762010232</v>
       </c>
       <c r="D62">
-        <v>0.070298541196562592</v>
+        <v>0.064738915208013406</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
+      <c r="A63" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.13862854469643984</v>
+        <v>0.14407421114462318</v>
       </c>
       <c r="C63">
-        <v>0.80032626648283733</v>
+        <v>0.78585257743465653</v>
       </c>
       <c r="D63">
-        <v>0.061045188820722816</v>
+        <v>0.070073211420720302</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
+      <c r="A64" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B64">
         <v>0.14407421114462318</v>
@@ -1415,85 +1419,85 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
+      <c r="A65" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.12845096758175853</v>
+        <v>0.11527506418326119</v>
       </c>
       <c r="C65">
-        <v>0.80514082536655107</v>
+        <v>0.81895407659145958</v>
       </c>
       <c r="D65">
-        <v>0.066408207051690302</v>
+        <v>0.065770859225279199</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
+      <c r="A66" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.12845096758175853</v>
+        <v>0.12832199887208209</v>
       </c>
       <c r="C66">
-        <v>0.80514082536655107</v>
+        <v>0.80220825978214683</v>
       </c>
       <c r="D66">
-        <v>0.066408207051690302</v>
+        <v>0.069469741345771108</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
+      <c r="A67" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.14353948063004721</v>
+        <v>0.14407421114462318</v>
       </c>
       <c r="C67">
-        <v>0.79256667478170995</v>
+        <v>0.78585257743465653</v>
       </c>
       <c r="D67">
-        <v>0.063893844588242821</v>
+        <v>0.070073211420720302</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
+      <c r="A68" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.13107959952290862</v>
+        <v>0.13565820984967378</v>
       </c>
       <c r="C68">
-        <v>0.80492639249035158</v>
+        <v>0.79404324895376366</v>
       </c>
       <c r="D68">
-        <v>0.063994007986739779</v>
+        <v>0.070298541196562592</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
+      <c r="A69" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.13250554717188417</v>
+        <v>0.14407421114462318</v>
       </c>
       <c r="C69">
-        <v>0.80275553762010232</v>
+        <v>0.78585257743465653</v>
       </c>
       <c r="D69">
-        <v>0.064738915208013406</v>
+        <v>0.070073211420720302</v>
       </c>
       <c r="E69">
         <v>2</v>
